--- a/bin/print/CollectionReport.xlsx
+++ b/bin/print/CollectionReport.xlsx
@@ -1163,11 +1163,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="302939376"/>
-        <c:axId val="302942904"/>
+        <c:axId val="101295296"/>
+        <c:axId val="101296472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="302939376"/>
+        <c:axId val="101295296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302942904"/>
+        <c:crossAx val="101296472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302942904"/>
+        <c:axId val="101296472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302939376"/>
+        <c:crossAx val="101295296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20206,8 +20206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/bin/print/CollectionReport.xlsx
+++ b/bin/print/CollectionReport.xlsx
@@ -1163,11 +1163,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="101295296"/>
-        <c:axId val="101296472"/>
+        <c:axId val="302939376"/>
+        <c:axId val="302942904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101295296"/>
+        <c:axId val="302939376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101296472"/>
+        <c:crossAx val="302942904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101296472"/>
+        <c:axId val="302942904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101295296"/>
+        <c:crossAx val="302939376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20206,8 +20206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
